--- a/results/Independent/RT/rt_prediction_independet_set.xlsx
+++ b/results/Independent/RT/rt_prediction_independet_set.xlsx
@@ -629,7 +629,7 @@
         <v>14474.2802734375</v>
       </c>
       <c r="C15" t="n">
-        <v>16.81218719482422</v>
+        <v>16.81219100952148</v>
       </c>
     </row>
     <row r="16">
@@ -1578,7 +1578,7 @@
         <v>4847.6279296875</v>
       </c>
       <c r="C88" t="n">
-        <v>20.61176300048828</v>
+        <v>20.61176109313965</v>
       </c>
     </row>
     <row r="89">
@@ -1851,7 +1851,7 @@
         <v>10858.7998046875</v>
       </c>
       <c r="C109" t="n">
-        <v>16.05405616760254</v>
+        <v>16.05405807495117</v>
       </c>
     </row>
     <row r="110">
@@ -1890,7 +1890,7 @@
         <v>15340.2001953125</v>
       </c>
       <c r="C112" t="n">
-        <v>15.53074073791504</v>
+        <v>15.53073883056641</v>
       </c>
     </row>
     <row r="113">
@@ -2748,7 +2748,7 @@
         <v>10744.6796875</v>
       </c>
       <c r="C178" t="n">
-        <v>17.96575355529785</v>
+        <v>17.96575546264648</v>
       </c>
     </row>
     <row r="179">
@@ -2943,7 +2943,7 @@
         <v>13054.3798828125</v>
       </c>
       <c r="C193" t="n">
-        <v>15.2803316116333</v>
+        <v>15.28033351898193</v>
       </c>
     </row>
     <row r="194">
@@ -3021,7 +3021,7 @@
         <v>14465.16015625</v>
       </c>
       <c r="C199" t="n">
-        <v>17.48467254638672</v>
+        <v>17.48466873168945</v>
       </c>
     </row>
     <row r="200">
@@ -3255,7 +3255,7 @@
         <v>15455.16015625</v>
       </c>
       <c r="C217" t="n">
-        <v>10.83936500549316</v>
+        <v>10.83936405181885</v>
       </c>
     </row>
     <row r="218">
@@ -3996,7 +3996,7 @@
         <v>15237.7197265625</v>
       </c>
       <c r="C274" t="n">
-        <v>10.76104640960693</v>
+        <v>10.76104736328125</v>
       </c>
     </row>
     <row r="275">
@@ -4191,7 +4191,7 @@
         <v>12629.9404296875</v>
       </c>
       <c r="C289" t="n">
-        <v>25.26777839660645</v>
+        <v>25.26778030395508</v>
       </c>
     </row>
     <row r="290">
@@ -4230,7 +4230,7 @@
         <v>14858.8798828125</v>
       </c>
       <c r="C292" t="n">
-        <v>15.75657367706299</v>
+        <v>15.75657176971436</v>
       </c>
     </row>
     <row r="293">
@@ -4295,7 +4295,7 @@
         <v>10884.0595703125</v>
       </c>
       <c r="C297" t="n">
-        <v>16.77079963684082</v>
+        <v>16.77079772949219</v>
       </c>
     </row>
     <row r="298">
